--- a/Assets/Resources/Chp_0.xlsx
+++ b/Assets/Resources/Chp_0.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="10.105.242.53559"/>
+  <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="10.105.234.53029"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="440" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="450" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Prologue" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2944" uniqueCount="2944">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2978" uniqueCount="2978">
   <si>
     <t>id</t>
   </si>
@@ -8875,6 +8875,108 @@
   </si>
   <si>
     <t>2475 2550 반복</t>
+  </si>
+  <si>
+    <t>875 ~ 900 반복</t>
+  </si>
+  <si>
+    <t>300 ~ 370 반복</t>
+  </si>
+  <si>
+    <t>400 부터 순차적 발생</t>
+  </si>
+  <si>
+    <t>900부터 순차적으로 발생</t>
+  </si>
+  <si>
+    <t>400 ~ 510 부터 순차적 발생</t>
+  </si>
+  <si>
+    <t>400 ~ 510 순차적 발생</t>
+  </si>
+  <si>
+    <t>900 ~ 1080 순차적 발생</t>
+  </si>
+  <si>
+    <t>560 ~ 640 반복</t>
+  </si>
+  <si>
+    <t>인게임 순차적 발생</t>
+  </si>
+  <si>
+    <t>순차적 발생</t>
+  </si>
+  <si>
+    <t>155 부터 순차적 발생</t>
+  </si>
+  <si>
+    <t>150 ~ 300 순차적 발생</t>
+  </si>
+  <si>
+    <t>155 부순차적 발생</t>
+  </si>
+  <si>
+    <t>700 ~ 950 순차적 발생</t>
+  </si>
+  <si>
+    <t>1150 ~ 1300 발생</t>
+  </si>
+  <si>
+    <t>1150 ~ 1300 순차적 발생</t>
+  </si>
+  <si>
+    <t>1610 ~ 1650 반복</t>
+  </si>
+  <si>
+    <t>1680 ~ 1700 반복</t>
+  </si>
+  <si>
+    <t>1750 ~ 1780 반복</t>
+  </si>
+  <si>
+    <t>1800 ~ 1850 반복</t>
+  </si>
+  <si>
+    <t>2120 ~ 2140 반복</t>
+  </si>
+  <si>
+    <t>2160 순차적 발생</t>
+  </si>
+  <si>
+    <t>그 사람을 왜 때린거지?</t>
+  </si>
+  <si>
+    <t>뭐였지?</t>
+  </si>
+  <si>
+    <t>내가 왜</t>
+  </si>
+  <si>
+    <t>... 내가 왜</t>
+  </si>
+  <si>
+    <t>그 사람을 때린거지?</t>
+  </si>
+  <si>
+    <t>그 사람을 때린거지...?</t>
+  </si>
+  <si>
+    <t>도통 알 수 없군...</t>
+  </si>
+  <si>
+    <t>피러</t>
+  </si>
+  <si>
+    <t>0 ~ 500 반복</t>
+  </si>
+  <si>
+    <t>길을 걷는 리퍼의 독백</t>
+  </si>
+  <si>
+    <t>뭣...</t>
+  </si>
+  <si>
+    <t>1020 ~ 1050 반복</t>
   </si>
 </sst>
 </file>
@@ -11074,7 +11176,7 @@
   <dimension ref="A1:G140"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F15" sqref="F15:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -11180,7 +11282,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="225"/>
-      <c r="B6" s="0" t="s">
+      <c r="D6" s="0" t="s">
         <v>685</v>
       </c>
     </row>
@@ -11198,7 +11300,7 @@
         <v>1869</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>2837</v>
+        <v>2944</v>
       </c>
       <c r="G7" s="18" t="s">
         <v>1913</v>
@@ -11266,7 +11368,7 @@
         <v>1991</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>2868</v>
+        <v>2950</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -11313,7 +11415,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="225"/>
-      <c r="B14" s="0" t="s">
+      <c r="D14" s="0" t="s">
         <v>685</v>
       </c>
     </row>
@@ -11332,7 +11434,7 @@
       </c>
       <c r="E15" s="37"/>
       <c r="F15" s="291" t="s">
-        <v>2826</v>
+        <v>2952</v>
       </c>
       <c r="G15" s="38" t="s">
         <v>1886</v>
@@ -11359,7 +11461,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="225"/>
-      <c r="B17" s="0" t="s">
+      <c r="D17" s="0" t="s">
         <v>685</v>
       </c>
     </row>
@@ -11511,9 +11613,7 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="225"/>
-      <c r="B26" s="241" t="s">
-        <v>685</v>
-      </c>
+      <c r="B26" s="241"/>
       <c r="C26" s="241"/>
       <c r="D26" s="241"/>
       <c r="E26" s="264"/>
@@ -11543,11 +11643,11 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="225"/>
-      <c r="B28" s="241" t="s">
+      <c r="B28" s="241"/>
+      <c r="C28" s="241"/>
+      <c r="D28" s="241" t="s">
         <v>685</v>
       </c>
-      <c r="C28" s="241"/>
-      <c r="D28" s="241"/>
       <c r="E28" s="264"/>
       <c r="F28" s="264"/>
     </row>
@@ -11674,7 +11774,7 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="225"/>
-      <c r="B36" s="0" t="s">
+      <c r="D36" s="0" t="s">
         <v>685</v>
       </c>
     </row>
@@ -12298,7 +12398,7 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="225"/>
-      <c r="B73" s="0" t="s">
+      <c r="D73" s="0" t="s">
         <v>685</v>
       </c>
       <c r="F73" s="288"/>
@@ -12363,7 +12463,7 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="225"/>
-      <c r="B77" s="0" t="s">
+      <c r="D77" s="0" t="s">
         <v>685</v>
       </c>
     </row>
@@ -12850,7 +12950,7 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="225"/>
-      <c r="B107" s="0" t="s">
+      <c r="D107" s="0" t="s">
         <v>685</v>
       </c>
     </row>

--- a/Assets/Resources/Chp_0.xlsx
+++ b/Assets/Resources/Chp_0.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="10.105.234.53029"/>
+  <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="10.105.242.53559"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="450" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="410" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Prologue" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2978" uniqueCount="2978">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3134" uniqueCount="3134">
   <si>
     <t>id</t>
   </si>
@@ -8877,51 +8877,408 @@
     <t>2475 2550 반복</t>
   </si>
   <si>
-    <t>875 ~ 900 반복</t>
+    <t>300 ~ 500 순차적 발생</t>
+  </si>
+  <si>
+    <t>700 ~ 730</t>
+  </si>
+  <si>
+    <t>810 ~ 850</t>
+  </si>
+  <si>
+    <t>700 ~ 730 반복</t>
+  </si>
+  <si>
+    <t>810 ~ 850 반복</t>
+  </si>
+  <si>
+    <t>810 ~ 950 반복</t>
+  </si>
+  <si>
+    <t>980 ~ 1080</t>
+  </si>
+  <si>
+    <t>980 ~ 1080 반복</t>
+  </si>
+  <si>
+    <t>1200 반복</t>
+  </si>
+  <si>
+    <t>1130 ~ 1200 반복</t>
+  </si>
+  <si>
+    <t>1240 ~ 1340 반복</t>
+  </si>
+  <si>
+    <t>670 ~ 720반복</t>
+  </si>
+  <si>
+    <t>670 ~ 720 반복</t>
+  </si>
+  <si>
+    <t>970 ~ 1040 반복</t>
+  </si>
+  <si>
+    <t>1080 ~ 1150 반복</t>
+  </si>
+  <si>
+    <t>1230 ~ 1300 반복</t>
+  </si>
+  <si>
+    <t>1340 ~ 1480 반복</t>
+  </si>
+  <si>
+    <t>1530 ~ 1630 반복</t>
+  </si>
+  <si>
+    <t>1750 ~ 1900 반복</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2000 ~ </t>
+  </si>
+  <si>
+    <t>이 집에서 그녀와 함께 지냈다</t>
+  </si>
+  <si>
+    <t>집에 돌아왔을땐 너가 있었다</t>
+  </si>
+  <si>
+    <t>그 사람이 이 집에서 살던 여인이다?</t>
+  </si>
+  <si>
+    <t>2000 ~ 2150 반복</t>
+  </si>
+  <si>
+    <t>2000 ~ 2200 반복</t>
+  </si>
+  <si>
+    <t>리퍼는 집을 바라본다.</t>
+  </si>
+  <si>
+    <t>리퍼가 사진기자를 바라본다.</t>
+  </si>
+  <si>
+    <t>2250 ~</t>
+  </si>
+  <si>
+    <t>없다</t>
+  </si>
+  <si>
+    <t>하지만</t>
+  </si>
+  <si>
+    <t>2300 ~ 2350 반복</t>
+  </si>
+  <si>
+    <t>2400 ~ 2550</t>
+  </si>
+  <si>
+    <t>2400 ~ 2530 반복</t>
+  </si>
+  <si>
+    <t>2550 ~ 2650</t>
+  </si>
+  <si>
+    <t>리퍼는 이동한다</t>
+  </si>
+  <si>
+    <t>1400 ~ 1480 반복</t>
+  </si>
+  <si>
+    <t>1380 ~ 1480 반복</t>
+  </si>
+  <si>
+    <t>일반 재생</t>
+  </si>
+  <si>
+    <t>1320 ~ 1360 반복</t>
+  </si>
+  <si>
+    <t>리퍼는 잠시 서서 얘기한다.</t>
+  </si>
+  <si>
+    <t>2600 ~ 2750 반복</t>
+  </si>
+  <si>
+    <t>사진기자는 서서 얘기한다.</t>
+  </si>
+  <si>
+    <t>리퍼는 다시 이동한다.</t>
+  </si>
+  <si>
+    <t>2800 ~ 2890 반복</t>
+  </si>
+  <si>
+    <t>120 ~ 350 반복</t>
+  </si>
+  <si>
+    <t xml:space="preserve">670 ~ 720 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">810 ~ 950 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">970 ~ 1040 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1080 ~ 1150 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1230 ~ 1300 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1320 ~ 1360 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1380 ~ 1480 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1530 ~ 1630 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1750 ~ 1900 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2000 ~ 2200 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2300 ~ 2350 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2400 ~ 2530 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2600 ~ 2750 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2800 ~ 2890 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">120 ~ 350 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">120 ~ 360 </t>
+  </si>
+  <si>
+    <t>450 ~ 550</t>
+  </si>
+  <si>
+    <t>570 ~ 620</t>
+  </si>
+  <si>
+    <t>670 ~ 950</t>
+  </si>
+  <si>
+    <t>350 ~ 700</t>
+  </si>
+  <si>
+    <t>350 ~ 520</t>
+  </si>
+  <si>
+    <t>550 ~ 700</t>
+  </si>
+  <si>
+    <t>50 ~ 90</t>
+  </si>
+  <si>
+    <t>150 발생</t>
+  </si>
+  <si>
+    <t>300 발생</t>
+  </si>
+  <si>
+    <t>0 발생</t>
+  </si>
+  <si>
+    <t>2-5 // 퍼가 주저앉아 구역질을 한다.</t>
+  </si>
+  <si>
+    <t>2-4 // 리퍼가 주저앉아 구역질을 한다.</t>
+  </si>
+  <si>
+    <t>2-3 // 농장 앞에서 브리핑을 한다.</t>
+  </si>
+  <si>
+    <t>2-2 // 반갑다는 듯 손을 들어올린다.</t>
+  </si>
+  <si>
+    <t>2-1</t>
+  </si>
+  <si>
+    <t>2-6 // 칼을 떨어트리는 QTE 적군</t>
+  </si>
+  <si>
+    <t>2-7 // 계단 차는 적군</t>
+  </si>
+  <si>
+    <t>210 ~ 310</t>
+  </si>
+  <si>
+    <t>2-8 // 리퍼를 향해 함께 공격하는 적군</t>
+  </si>
+  <si>
+    <t>40 ~ 120</t>
+  </si>
+  <si>
+    <t>170 ~ 230</t>
+  </si>
+  <si>
+    <t>0 ~ 140</t>
+  </si>
+  <si>
+    <t>200 ~ 290</t>
+  </si>
+  <si>
+    <t>585 ~ 620</t>
+  </si>
+  <si>
+    <t>2-9</t>
+  </si>
+  <si>
+    <t>80 ~ 300</t>
+  </si>
+  <si>
+    <t>70 ~ 190</t>
+  </si>
+  <si>
+    <t>!speed 1 4 1</t>
+  </si>
+  <si>
+    <t>!speed 1 2 1</t>
+  </si>
+  <si>
+    <t>!speed 1 5 1</t>
+  </si>
+  <si>
+    <t>!speed 1 10 1</t>
+  </si>
+  <si>
+    <t>!speed 1 3 1</t>
+  </si>
+  <si>
+    <t>!speed 1 4 1, !speed 6 8 0.02</t>
+  </si>
+  <si>
+    <t>!speed 5 9 1, !speed 16 22 1</t>
+  </si>
+  <si>
+    <t>!size 16 20 24, !speed 16 20 1</t>
+  </si>
+  <si>
+    <t>!speed 11 12 1</t>
+  </si>
+  <si>
+    <t>!speed 1 4 1, !speed 6 8 1</t>
+  </si>
+  <si>
+    <t>!speed 1 6 1</t>
+  </si>
+  <si>
+    <t>!speed 1 8 1</t>
+  </si>
+  <si>
+    <t>!speed 1 7 1</t>
+  </si>
+  <si>
+    <t>!speed 1 8 2</t>
+  </si>
+  <si>
+    <t>!speed 1 4 1, !speed 6 8 2</t>
+  </si>
+  <si>
+    <t>!speed 4 12 1, !size 4 12 24</t>
+  </si>
+  <si>
+    <t>!speed 2 4 1</t>
+  </si>
+  <si>
+    <t>!speed 4 5 1</t>
+  </si>
+  <si>
+    <t>0 ~ 100</t>
+  </si>
+  <si>
+    <t>300 ~ 750</t>
+  </si>
+  <si>
+    <t>150 ~ 190</t>
+  </si>
+  <si>
+    <t>235 ~ 280</t>
+  </si>
+  <si>
+    <t>335 ~ 345</t>
+  </si>
+  <si>
+    <t>965 ~ 1095</t>
+  </si>
+  <si>
+    <t>1130 ~ 1250</t>
+  </si>
+  <si>
+    <t>100 ~ 145</t>
+  </si>
+  <si>
+    <t>80 ~ 130</t>
+  </si>
+  <si>
+    <t>850 ~ 960</t>
+  </si>
+  <si>
+    <t>1600 ~ 1750</t>
+  </si>
+  <si>
+    <t>1850 ~ 1950</t>
+  </si>
+  <si>
+    <t>2230 ~ 2380</t>
+  </si>
+  <si>
+    <t>2400 ~ 2470</t>
+  </si>
+  <si>
+    <t>3000 ~ 3200</t>
+  </si>
+  <si>
+    <t>2475 2550</t>
+  </si>
+  <si>
+    <t>순차적</t>
+  </si>
+  <si>
+    <t>360 ~ 500 순차적 발생</t>
+  </si>
+  <si>
+    <t>630 ~ 780 순차적 발생</t>
+  </si>
+  <si>
+    <t>810 ~ 930 순차적 발생</t>
+  </si>
+  <si>
+    <t>410 ~ 540 순차적 발생</t>
   </si>
   <si>
     <t>300 ~ 370 반복</t>
   </si>
   <si>
-    <t>400 부터 순차적 발생</t>
-  </si>
-  <si>
-    <t>900부터 순차적으로 발생</t>
-  </si>
-  <si>
-    <t>400 ~ 510 부터 순차적 발생</t>
-  </si>
-  <si>
     <t>400 ~ 510 순차적 발생</t>
   </si>
   <si>
-    <t>900 ~ 1080 순차적 발생</t>
-  </si>
-  <si>
     <t>560 ~ 640 반복</t>
   </si>
   <si>
     <t>인게임 순차적 발생</t>
   </si>
   <si>
-    <t>순차적 발생</t>
-  </si>
-  <si>
     <t>155 부터 순차적 발생</t>
   </si>
   <si>
     <t>150 ~ 300 순차적 발생</t>
   </si>
   <si>
-    <t>155 부순차적 발생</t>
-  </si>
-  <si>
     <t>700 ~ 950 순차적 발생</t>
   </si>
   <si>
-    <t>1150 ~ 1300 발생</t>
-  </si>
-  <si>
     <t>1150 ~ 1300 순차적 발생</t>
   </si>
   <si>
@@ -8943,52 +9300,164 @@
     <t>2160 순차적 발생</t>
   </si>
   <si>
-    <t>그 사람을 왜 때린거지?</t>
-  </si>
-  <si>
-    <t>뭐였지?</t>
-  </si>
-  <si>
-    <t>내가 왜</t>
+    <t>0 ~ 500 반복</t>
+  </si>
+  <si>
+    <t>1020 ~ 1050 반복</t>
   </si>
   <si>
     <t>... 내가 왜</t>
   </si>
   <si>
-    <t>그 사람을 때린거지?</t>
-  </si>
-  <si>
     <t>그 사람을 때린거지...?</t>
   </si>
   <si>
-    <t>도통 알 수 없군...</t>
-  </si>
-  <si>
-    <t>피러</t>
-  </si>
-  <si>
-    <t>0 ~ 500 반복</t>
+    <t>뭣...</t>
   </si>
   <si>
     <t>길을 걷는 리퍼의 독백</t>
   </si>
   <si>
-    <t>뭣...</t>
-  </si>
-  <si>
-    <t>1020 ~ 1050 반복</t>
+    <t>2-10</t>
+  </si>
+  <si>
+    <t>2-10 // 클리어 이후. 적군 대사</t>
+  </si>
+  <si>
+    <t>2-11</t>
+  </si>
+  <si>
+    <t>2-12 // 화면이 불투명하고 리퍼는 고개를 숙이고있다.</t>
+  </si>
+  <si>
+    <t>320 ~ 480</t>
+  </si>
+  <si>
+    <t>320 ~ 400</t>
+  </si>
+  <si>
+    <t>데모에선 안씀</t>
+  </si>
+  <si>
+    <t>400 ~ 500</t>
+  </si>
+  <si>
+    <t>550 ~ 680</t>
+  </si>
+  <si>
+    <t>720 ~ 870</t>
+  </si>
+  <si>
+    <t>900 ~ 1200</t>
+  </si>
+  <si>
+    <t>1230 ~ 1350</t>
+  </si>
+  <si>
+    <t>1360 ~ 1450</t>
+  </si>
+  <si>
+    <t>1480 ~ 1600</t>
+  </si>
+  <si>
+    <t>380 ~ 470 발생</t>
+  </si>
+  <si>
+    <t>310 ~ 400</t>
+  </si>
+  <si>
+    <t>430 ~ 520</t>
+  </si>
+  <si>
+    <t xml:space="preserve">600 ~ </t>
+  </si>
+  <si>
+    <t>600 ~ 750</t>
+  </si>
+  <si>
+    <t>380 ~ 470</t>
+  </si>
+  <si>
+    <t>820 ~ 970</t>
+  </si>
+  <si>
+    <t>1020 ~ 1070</t>
+  </si>
+  <si>
+    <t>1020 ~ 1090</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50 ~ </t>
+  </si>
+  <si>
+    <t>50 ~ 280</t>
+  </si>
+  <si>
+    <t>50 ~ 280 순차적 발생</t>
+  </si>
+  <si>
+    <t>290 ~ 350</t>
+  </si>
+  <si>
+    <t>370 ~ 500</t>
+  </si>
+  <si>
+    <t>530 ~ 680 순차적 발생</t>
+  </si>
+  <si>
+    <t>730 ~ 780 순차적 발생</t>
+  </si>
+  <si>
+    <t>발톱이 농장 앞에 서있다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">250 ~ </t>
+  </si>
+  <si>
+    <t>200 ~ 500 순차적 발생</t>
+  </si>
+  <si>
+    <t>!size 1 5 2</t>
+  </si>
+  <si>
+    <t>!size 1 7 2</t>
+  </si>
+  <si>
+    <t>!size 16 20 2, !speed 16 20 1</t>
+  </si>
+  <si>
+    <t>!size 13 15 2</t>
+  </si>
+  <si>
+    <t>!size 10 13 2</t>
+  </si>
+  <si>
+    <t>!move 1012</t>
+  </si>
+  <si>
+    <t>!size 1 8 2</t>
+  </si>
+  <si>
+    <t>!size 1 6 2</t>
+  </si>
+  <si>
+    <t>!size 1 9 2</t>
+  </si>
+  <si>
+    <t>!size 1 13 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="64" formatCode="0000"/>
     <numFmt numFmtId="65" formatCode="General"/>
     <numFmt numFmtId="66" formatCode="00000"/>
     <numFmt numFmtId="69" formatCode="0;[Red]0"/>
     <numFmt numFmtId="70" formatCode="@"/>
+    <numFmt numFmtId="75" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -9117,7 +9586,7 @@
       <color theme="1"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9343,8 +9812,14 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="45">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -9825,6 +10300,26 @@
       <top/>
       <bottom/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -9975,7 +10470,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="292">
+  <cellXfs count="326">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -10850,6 +11345,108 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="45" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="43" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="43" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="46" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="75" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="75" fontId="20" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="66" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="38" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -11173,10 +11770,10 @@
   <sheetPr>
     <tabColor rgb="ff0000"/>
   </sheetPr>
-  <dimension ref="A1:G140"/>
+  <dimension ref="A1:G141"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15:F16"/>
+    <sheetView topLeftCell="A121" tabSelected="1" zoomScale="90" workbookViewId="0">
+      <selection activeCell="B107" sqref="B107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -11184,7 +11781,7 @@
     <col min="1" max="1" style="223" width="6.63000011" customWidth="1" outlineLevel="0"/>
     <col min="2" max="2" width="8.38000011" customWidth="1" outlineLevel="0"/>
     <col min="4" max="4" width="49.00500107" customWidth="1" outlineLevel="0"/>
-    <col min="5" max="5" style="10" width="22.37999916" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="5" style="10" width="37.38000107" customWidth="1" outlineLevel="0"/>
     <col min="6" max="6" style="10" width="29.00499916" customWidth="1" outlineLevel="0"/>
     <col min="7" max="7" style="18" width="36.00500107" customWidth="1" outlineLevel="0"/>
   </cols>
@@ -11226,7 +11823,7 @@
         <v>1912</v>
       </c>
       <c r="F2" s="289" t="s">
-        <v>2817</v>
+        <v>3050</v>
       </c>
       <c r="G2" s="18" t="s">
         <v>1867</v>
@@ -11282,7 +11879,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="225"/>
-      <c r="D6" s="0" t="s">
+      <c r="B6" s="0" t="s">
         <v>685</v>
       </c>
     </row>
@@ -11300,7 +11897,7 @@
         <v>1869</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>2944</v>
+        <v>2824</v>
       </c>
       <c r="G7" s="18" t="s">
         <v>1913</v>
@@ -11350,7 +11947,7 @@
         <v>1876</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>2494</v>
+        <v>3032</v>
       </c>
       <c r="F10" s="15"/>
     </row>
@@ -11368,7 +11965,7 @@
         <v>1991</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>2950</v>
+        <v>2868</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -11406,7 +12003,7 @@
         <v>1880</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>2494</v>
+        <v>3032</v>
       </c>
       <c r="F13" s="15"/>
       <c r="G13" s="18" t="s">
@@ -11415,7 +12012,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="225"/>
-      <c r="D14" s="0" t="s">
+      <c r="B14" s="0" t="s">
         <v>685</v>
       </c>
     </row>
@@ -11434,7 +12031,7 @@
       </c>
       <c r="E15" s="37"/>
       <c r="F15" s="291" t="s">
-        <v>2952</v>
+        <v>3066</v>
       </c>
       <c r="G15" s="38" t="s">
         <v>1886</v>
@@ -11461,7 +12058,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="225"/>
-      <c r="D17" s="0" t="s">
+      <c r="B17" s="0" t="s">
         <v>685</v>
       </c>
     </row>
@@ -11479,10 +12076,10 @@
         <v>1887</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>2494</v>
+        <v>3032</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>2839</v>
+        <v>2827</v>
       </c>
       <c r="G18" s="18" t="s">
         <v>1889</v>
@@ -11517,7 +12114,7 @@
         <v>1893</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>2840</v>
+        <v>2828</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -11602,7 +12199,7 @@
         <v>1934</v>
       </c>
       <c r="E25" s="264" t="s">
-        <v>2495</v>
+        <v>3033</v>
       </c>
       <c r="F25" s="290" t="s">
         <v>2835</v>
@@ -11613,7 +12210,9 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="225"/>
-      <c r="B26" s="241"/>
+      <c r="B26" s="241" t="s">
+        <v>685</v>
+      </c>
       <c r="C26" s="241"/>
       <c r="D26" s="241"/>
       <c r="E26" s="264"/>
@@ -11643,11 +12242,11 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="225"/>
-      <c r="B28" s="241"/>
+      <c r="B28" s="241" t="s">
+        <v>685</v>
+      </c>
       <c r="C28" s="241"/>
-      <c r="D28" s="241" t="s">
-        <v>685</v>
-      </c>
+      <c r="D28" s="241"/>
       <c r="E28" s="264"/>
       <c r="F28" s="264"/>
     </row>
@@ -11668,7 +12267,7 @@
         <v>2509</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>2841</v>
+        <v>2836</v>
       </c>
       <c r="G29" s="18" t="s">
         <v>1946</v>
@@ -11721,7 +12320,7 @@
         <v>1842</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>2842</v>
+        <v>3051</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -11774,7 +12373,7 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="225"/>
-      <c r="D36" s="0" t="s">
+      <c r="B36" s="0" t="s">
         <v>685</v>
       </c>
     </row>
@@ -11792,7 +12391,7 @@
         <v>1958</v>
       </c>
       <c r="F37" s="290" t="s">
-        <v>2869</v>
+        <v>3052</v>
       </c>
       <c r="G37" s="18" t="s">
         <v>1977</v>
@@ -11812,7 +12411,7 @@
         <v>1959</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>2497</v>
+        <v>3036</v>
       </c>
       <c r="F38" s="290"/>
     </row>
@@ -11863,7 +12462,7 @@
         <v>1972</v>
       </c>
       <c r="F41" s="290" t="s">
-        <v>2870</v>
+        <v>3053</v>
       </c>
       <c r="G41" s="18" t="s">
         <v>1978</v>
@@ -11883,7 +12482,7 @@
         <v>1965</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>2525</v>
+        <v>3047</v>
       </c>
       <c r="F42" s="290"/>
     </row>
@@ -11916,7 +12515,7 @@
         <v>1967</v>
       </c>
       <c r="F44" s="290" t="s">
-        <v>2871</v>
+        <v>3054</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -11984,7 +12583,7 @@
         <v>1981</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>2513</v>
+        <v>3048</v>
       </c>
       <c r="F48" s="290"/>
     </row>
@@ -12002,7 +12601,7 @@
         <v>1982</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>2878</v>
+        <v>3067</v>
       </c>
       <c r="G49" s="45" t="s">
         <v>2514</v>
@@ -12022,7 +12621,7 @@
         <v>1983</v>
       </c>
       <c r="F50" s="290" t="s">
-        <v>2880</v>
+        <v>3068</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -12039,7 +12638,7 @@
         <v>1989</v>
       </c>
       <c r="F51" s="290" t="s">
-        <v>2882</v>
+        <v>3069</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -12056,7 +12655,7 @@
         <v>1992</v>
       </c>
       <c r="F52" s="290" t="s">
-        <v>2883</v>
+        <v>3055</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -12127,7 +12726,7 @@
         <v>2020</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>2515</v>
+        <v>3049</v>
       </c>
       <c r="F56" s="290"/>
       <c r="G56" s="18" t="s">
@@ -12193,7 +12792,7 @@
         <v>156</v>
       </c>
       <c r="F60" s="290" t="s">
-        <v>2884</v>
+        <v>3056</v>
       </c>
       <c r="G60" s="18" t="s">
         <v>2039</v>
@@ -12398,7 +12997,7 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="225"/>
-      <c r="D73" s="0" t="s">
+      <c r="B73" s="0" t="s">
         <v>685</v>
       </c>
       <c r="F73" s="288"/>
@@ -12417,7 +13016,7 @@
         <v>2069</v>
       </c>
       <c r="F74" s="15" t="s">
-        <v>2886</v>
+        <v>3057</v>
       </c>
       <c r="G74" s="18" t="s">
         <v>2072</v>
@@ -12463,7 +13062,7 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="225"/>
-      <c r="D77" s="0" t="s">
+      <c r="B77" s="0" t="s">
         <v>685</v>
       </c>
     </row>
@@ -12481,7 +13080,7 @@
         <v>1958</v>
       </c>
       <c r="F78" s="15" t="s">
-        <v>2890</v>
+        <v>3058</v>
       </c>
       <c r="G78" s="18" t="s">
         <v>2086</v>
@@ -12518,7 +13117,7 @@
         <v>2089</v>
       </c>
       <c r="F80" s="15" t="s">
-        <v>2892</v>
+        <v>3059</v>
       </c>
       <c r="G80" s="18" t="s">
         <v>2088</v>
@@ -12586,7 +13185,7 @@
         <v>2085</v>
       </c>
       <c r="F84" s="290" t="s">
-        <v>2896</v>
+        <v>3060</v>
       </c>
       <c r="G84" s="18" t="s">
         <v>2093</v>
@@ -12651,7 +13250,7 @@
         <v>2107</v>
       </c>
       <c r="F88" s="290" t="s">
-        <v>2895</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -12686,7 +13285,7 @@
         <v>156</v>
       </c>
       <c r="F90" s="15" t="s">
-        <v>2900</v>
+        <v>3062</v>
       </c>
       <c r="G90" s="18" t="s">
         <v>2117</v>
@@ -12769,7 +13368,7 @@
         <v>2143</v>
       </c>
       <c r="F95" s="15" t="s">
-        <v>2901</v>
+        <v>3063</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -12819,7 +13418,7 @@
         <v>2127</v>
       </c>
       <c r="F98" s="15" t="s">
-        <v>2902</v>
+        <v>3064</v>
       </c>
       <c r="G98" s="18" t="s">
         <v>2151</v>
@@ -12950,7 +13549,7 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="225"/>
-      <c r="D107" s="0" t="s">
+      <c r="B107" s="0" t="s">
         <v>685</v>
       </c>
     </row>
@@ -12968,7 +13567,7 @@
         <v>2173</v>
       </c>
       <c r="F108" s="290" t="s">
-        <v>2941</v>
+        <v>3070</v>
       </c>
       <c r="G108" s="18" t="s">
         <v>2177</v>
@@ -12988,7 +13587,7 @@
         <v>2172</v>
       </c>
       <c r="E109" s="10" t="s">
-        <v>2520</v>
+        <v>3042</v>
       </c>
       <c r="F109" s="15" t="s">
         <v>2942</v>
@@ -13054,7 +13653,7 @@
         <v>2287</v>
       </c>
       <c r="E112" s="10" t="s">
-        <v>2520</v>
+        <v>3042</v>
       </c>
       <c r="F112" s="15" t="s">
         <v>2913</v>
@@ -13208,7 +13807,7 @@
         <v>2931</v>
       </c>
       <c r="F120" s="290" t="s">
-        <v>2943</v>
+        <v>3065</v>
       </c>
       <c r="G120" s="18" t="s">
         <v>2214</v>
@@ -13279,7 +13878,7 @@
         <v>2234</v>
       </c>
       <c r="E124" s="10" t="s">
-        <v>2497</v>
+        <v>3036</v>
       </c>
       <c r="F124" s="290"/>
     </row>
@@ -13453,7 +14052,7 @@
         <v>2262</v>
       </c>
       <c r="E135" s="10" t="s">
-        <v>2494</v>
+        <v>3032</v>
       </c>
       <c r="F135" s="15"/>
     </row>
@@ -13534,6 +14133,11 @@
         <v>2266</v>
       </c>
       <c r="F140" s="15"/>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="B141" s="0" t="s">
+        <v>685</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="21">

--- a/Assets/Resources/Chp_0.xlsx
+++ b/Assets/Resources/Chp_0.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="10.105.242.53559"/>
+  <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="10.105.234.53029"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="410" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="450" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Prologue" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3134" uniqueCount="3134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2978" uniqueCount="2978">
   <si>
     <t>id</t>
   </si>
@@ -8877,408 +8877,51 @@
     <t>2475 2550 반복</t>
   </si>
   <si>
-    <t>300 ~ 500 순차적 발생</t>
-  </si>
-  <si>
-    <t>700 ~ 730</t>
-  </si>
-  <si>
-    <t>810 ~ 850</t>
-  </si>
-  <si>
-    <t>700 ~ 730 반복</t>
-  </si>
-  <si>
-    <t>810 ~ 850 반복</t>
-  </si>
-  <si>
-    <t>810 ~ 950 반복</t>
-  </si>
-  <si>
-    <t>980 ~ 1080</t>
-  </si>
-  <si>
-    <t>980 ~ 1080 반복</t>
-  </si>
-  <si>
-    <t>1200 반복</t>
-  </si>
-  <si>
-    <t>1130 ~ 1200 반복</t>
-  </si>
-  <si>
-    <t>1240 ~ 1340 반복</t>
-  </si>
-  <si>
-    <t>670 ~ 720반복</t>
-  </si>
-  <si>
-    <t>670 ~ 720 반복</t>
-  </si>
-  <si>
-    <t>970 ~ 1040 반복</t>
-  </si>
-  <si>
-    <t>1080 ~ 1150 반복</t>
-  </si>
-  <si>
-    <t>1230 ~ 1300 반복</t>
-  </si>
-  <si>
-    <t>1340 ~ 1480 반복</t>
-  </si>
-  <si>
-    <t>1530 ~ 1630 반복</t>
-  </si>
-  <si>
-    <t>1750 ~ 1900 반복</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2000 ~ </t>
-  </si>
-  <si>
-    <t>이 집에서 그녀와 함께 지냈다</t>
-  </si>
-  <si>
-    <t>집에 돌아왔을땐 너가 있었다</t>
-  </si>
-  <si>
-    <t>그 사람이 이 집에서 살던 여인이다?</t>
-  </si>
-  <si>
-    <t>2000 ~ 2150 반복</t>
-  </si>
-  <si>
-    <t>2000 ~ 2200 반복</t>
-  </si>
-  <si>
-    <t>리퍼는 집을 바라본다.</t>
-  </si>
-  <si>
-    <t>리퍼가 사진기자를 바라본다.</t>
-  </si>
-  <si>
-    <t>2250 ~</t>
-  </si>
-  <si>
-    <t>없다</t>
-  </si>
-  <si>
-    <t>하지만</t>
-  </si>
-  <si>
-    <t>2300 ~ 2350 반복</t>
-  </si>
-  <si>
-    <t>2400 ~ 2550</t>
-  </si>
-  <si>
-    <t>2400 ~ 2530 반복</t>
-  </si>
-  <si>
-    <t>2550 ~ 2650</t>
-  </si>
-  <si>
-    <t>리퍼는 이동한다</t>
-  </si>
-  <si>
-    <t>1400 ~ 1480 반복</t>
-  </si>
-  <si>
-    <t>1380 ~ 1480 반복</t>
-  </si>
-  <si>
-    <t>일반 재생</t>
-  </si>
-  <si>
-    <t>1320 ~ 1360 반복</t>
-  </si>
-  <si>
-    <t>리퍼는 잠시 서서 얘기한다.</t>
-  </si>
-  <si>
-    <t>2600 ~ 2750 반복</t>
-  </si>
-  <si>
-    <t>사진기자는 서서 얘기한다.</t>
-  </si>
-  <si>
-    <t>리퍼는 다시 이동한다.</t>
-  </si>
-  <si>
-    <t>2800 ~ 2890 반복</t>
-  </si>
-  <si>
-    <t>120 ~ 350 반복</t>
-  </si>
-  <si>
-    <t xml:space="preserve">670 ~ 720 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">810 ~ 950 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">970 ~ 1040 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1080 ~ 1150 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1230 ~ 1300 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1320 ~ 1360 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1380 ~ 1480 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1530 ~ 1630 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1750 ~ 1900 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2000 ~ 2200 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2300 ~ 2350 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2400 ~ 2530 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2600 ~ 2750 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2800 ~ 2890 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">120 ~ 350 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">120 ~ 360 </t>
-  </si>
-  <si>
-    <t>450 ~ 550</t>
-  </si>
-  <si>
-    <t>570 ~ 620</t>
-  </si>
-  <si>
-    <t>670 ~ 950</t>
-  </si>
-  <si>
-    <t>350 ~ 700</t>
-  </si>
-  <si>
-    <t>350 ~ 520</t>
-  </si>
-  <si>
-    <t>550 ~ 700</t>
-  </si>
-  <si>
-    <t>50 ~ 90</t>
-  </si>
-  <si>
-    <t>150 발생</t>
-  </si>
-  <si>
-    <t>300 발생</t>
-  </si>
-  <si>
-    <t>0 발생</t>
-  </si>
-  <si>
-    <t>2-5 // 퍼가 주저앉아 구역질을 한다.</t>
-  </si>
-  <si>
-    <t>2-4 // 리퍼가 주저앉아 구역질을 한다.</t>
-  </si>
-  <si>
-    <t>2-3 // 농장 앞에서 브리핑을 한다.</t>
-  </si>
-  <si>
-    <t>2-2 // 반갑다는 듯 손을 들어올린다.</t>
-  </si>
-  <si>
-    <t>2-1</t>
-  </si>
-  <si>
-    <t>2-6 // 칼을 떨어트리는 QTE 적군</t>
-  </si>
-  <si>
-    <t>2-7 // 계단 차는 적군</t>
-  </si>
-  <si>
-    <t>210 ~ 310</t>
-  </si>
-  <si>
-    <t>2-8 // 리퍼를 향해 함께 공격하는 적군</t>
-  </si>
-  <si>
-    <t>40 ~ 120</t>
-  </si>
-  <si>
-    <t>170 ~ 230</t>
-  </si>
-  <si>
-    <t>0 ~ 140</t>
-  </si>
-  <si>
-    <t>200 ~ 290</t>
-  </si>
-  <si>
-    <t>585 ~ 620</t>
-  </si>
-  <si>
-    <t>2-9</t>
-  </si>
-  <si>
-    <t>80 ~ 300</t>
-  </si>
-  <si>
-    <t>70 ~ 190</t>
-  </si>
-  <si>
-    <t>!speed 1 4 1</t>
-  </si>
-  <si>
-    <t>!speed 1 2 1</t>
-  </si>
-  <si>
-    <t>!speed 1 5 1</t>
-  </si>
-  <si>
-    <t>!speed 1 10 1</t>
-  </si>
-  <si>
-    <t>!speed 1 3 1</t>
-  </si>
-  <si>
-    <t>!speed 1 4 1, !speed 6 8 0.02</t>
-  </si>
-  <si>
-    <t>!speed 5 9 1, !speed 16 22 1</t>
-  </si>
-  <si>
-    <t>!size 16 20 24, !speed 16 20 1</t>
-  </si>
-  <si>
-    <t>!speed 11 12 1</t>
-  </si>
-  <si>
-    <t>!speed 1 4 1, !speed 6 8 1</t>
-  </si>
-  <si>
-    <t>!speed 1 6 1</t>
-  </si>
-  <si>
-    <t>!speed 1 8 1</t>
-  </si>
-  <si>
-    <t>!speed 1 7 1</t>
-  </si>
-  <si>
-    <t>!speed 1 8 2</t>
-  </si>
-  <si>
-    <t>!speed 1 4 1, !speed 6 8 2</t>
-  </si>
-  <si>
-    <t>!speed 4 12 1, !size 4 12 24</t>
-  </si>
-  <si>
-    <t>!speed 2 4 1</t>
-  </si>
-  <si>
-    <t>!speed 4 5 1</t>
-  </si>
-  <si>
-    <t>0 ~ 100</t>
-  </si>
-  <si>
-    <t>300 ~ 750</t>
-  </si>
-  <si>
-    <t>150 ~ 190</t>
-  </si>
-  <si>
-    <t>235 ~ 280</t>
-  </si>
-  <si>
-    <t>335 ~ 345</t>
-  </si>
-  <si>
-    <t>965 ~ 1095</t>
-  </si>
-  <si>
-    <t>1130 ~ 1250</t>
-  </si>
-  <si>
-    <t>100 ~ 145</t>
-  </si>
-  <si>
-    <t>80 ~ 130</t>
-  </si>
-  <si>
-    <t>850 ~ 960</t>
-  </si>
-  <si>
-    <t>1600 ~ 1750</t>
-  </si>
-  <si>
-    <t>1850 ~ 1950</t>
-  </si>
-  <si>
-    <t>2230 ~ 2380</t>
-  </si>
-  <si>
-    <t>2400 ~ 2470</t>
-  </si>
-  <si>
-    <t>3000 ~ 3200</t>
-  </si>
-  <si>
-    <t>2475 2550</t>
-  </si>
-  <si>
-    <t>순차적</t>
-  </si>
-  <si>
-    <t>360 ~ 500 순차적 발생</t>
-  </si>
-  <si>
-    <t>630 ~ 780 순차적 발생</t>
-  </si>
-  <si>
-    <t>810 ~ 930 순차적 발생</t>
-  </si>
-  <si>
-    <t>410 ~ 540 순차적 발생</t>
+    <t>875 ~ 900 반복</t>
   </si>
   <si>
     <t>300 ~ 370 반복</t>
   </si>
   <si>
+    <t>400 부터 순차적 발생</t>
+  </si>
+  <si>
+    <t>900부터 순차적으로 발생</t>
+  </si>
+  <si>
+    <t>400 ~ 510 부터 순차적 발생</t>
+  </si>
+  <si>
     <t>400 ~ 510 순차적 발생</t>
   </si>
   <si>
+    <t>900 ~ 1080 순차적 발생</t>
+  </si>
+  <si>
     <t>560 ~ 640 반복</t>
   </si>
   <si>
     <t>인게임 순차적 발생</t>
   </si>
   <si>
+    <t>순차적 발생</t>
+  </si>
+  <si>
     <t>155 부터 순차적 발생</t>
   </si>
   <si>
     <t>150 ~ 300 순차적 발생</t>
   </si>
   <si>
+    <t>155 부순차적 발생</t>
+  </si>
+  <si>
     <t>700 ~ 950 순차적 발생</t>
   </si>
   <si>
+    <t>1150 ~ 1300 발생</t>
+  </si>
+  <si>
     <t>1150 ~ 1300 순차적 발생</t>
   </si>
   <si>
@@ -9300,164 +8943,52 @@
     <t>2160 순차적 발생</t>
   </si>
   <si>
+    <t>그 사람을 왜 때린거지?</t>
+  </si>
+  <si>
+    <t>뭐였지?</t>
+  </si>
+  <si>
+    <t>내가 왜</t>
+  </si>
+  <si>
+    <t>... 내가 왜</t>
+  </si>
+  <si>
+    <t>그 사람을 때린거지?</t>
+  </si>
+  <si>
+    <t>그 사람을 때린거지...?</t>
+  </si>
+  <si>
+    <t>도통 알 수 없군...</t>
+  </si>
+  <si>
+    <t>피러</t>
+  </si>
+  <si>
     <t>0 ~ 500 반복</t>
   </si>
   <si>
+    <t>길을 걷는 리퍼의 독백</t>
+  </si>
+  <si>
+    <t>뭣...</t>
+  </si>
+  <si>
     <t>1020 ~ 1050 반복</t>
-  </si>
-  <si>
-    <t>... 내가 왜</t>
-  </si>
-  <si>
-    <t>그 사람을 때린거지...?</t>
-  </si>
-  <si>
-    <t>뭣...</t>
-  </si>
-  <si>
-    <t>길을 걷는 리퍼의 독백</t>
-  </si>
-  <si>
-    <t>2-10</t>
-  </si>
-  <si>
-    <t>2-10 // 클리어 이후. 적군 대사</t>
-  </si>
-  <si>
-    <t>2-11</t>
-  </si>
-  <si>
-    <t>2-12 // 화면이 불투명하고 리퍼는 고개를 숙이고있다.</t>
-  </si>
-  <si>
-    <t>320 ~ 480</t>
-  </si>
-  <si>
-    <t>320 ~ 400</t>
-  </si>
-  <si>
-    <t>데모에선 안씀</t>
-  </si>
-  <si>
-    <t>400 ~ 500</t>
-  </si>
-  <si>
-    <t>550 ~ 680</t>
-  </si>
-  <si>
-    <t>720 ~ 870</t>
-  </si>
-  <si>
-    <t>900 ~ 1200</t>
-  </si>
-  <si>
-    <t>1230 ~ 1350</t>
-  </si>
-  <si>
-    <t>1360 ~ 1450</t>
-  </si>
-  <si>
-    <t>1480 ~ 1600</t>
-  </si>
-  <si>
-    <t>380 ~ 470 발생</t>
-  </si>
-  <si>
-    <t>310 ~ 400</t>
-  </si>
-  <si>
-    <t>430 ~ 520</t>
-  </si>
-  <si>
-    <t xml:space="preserve">600 ~ </t>
-  </si>
-  <si>
-    <t>600 ~ 750</t>
-  </si>
-  <si>
-    <t>380 ~ 470</t>
-  </si>
-  <si>
-    <t>820 ~ 970</t>
-  </si>
-  <si>
-    <t>1020 ~ 1070</t>
-  </si>
-  <si>
-    <t>1020 ~ 1090</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50 ~ </t>
-  </si>
-  <si>
-    <t>50 ~ 280</t>
-  </si>
-  <si>
-    <t>50 ~ 280 순차적 발생</t>
-  </si>
-  <si>
-    <t>290 ~ 350</t>
-  </si>
-  <si>
-    <t>370 ~ 500</t>
-  </si>
-  <si>
-    <t>530 ~ 680 순차적 발생</t>
-  </si>
-  <si>
-    <t>730 ~ 780 순차적 발생</t>
-  </si>
-  <si>
-    <t>발톱이 농장 앞에 서있다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">250 ~ </t>
-  </si>
-  <si>
-    <t>200 ~ 500 순차적 발생</t>
-  </si>
-  <si>
-    <t>!size 1 5 2</t>
-  </si>
-  <si>
-    <t>!size 1 7 2</t>
-  </si>
-  <si>
-    <t>!size 16 20 2, !speed 16 20 1</t>
-  </si>
-  <si>
-    <t>!size 13 15 2</t>
-  </si>
-  <si>
-    <t>!size 10 13 2</t>
-  </si>
-  <si>
-    <t>!move 1012</t>
-  </si>
-  <si>
-    <t>!size 1 8 2</t>
-  </si>
-  <si>
-    <t>!size 1 6 2</t>
-  </si>
-  <si>
-    <t>!size 1 9 2</t>
-  </si>
-  <si>
-    <t>!size 1 13 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="5">
     <numFmt numFmtId="64" formatCode="0000"/>
     <numFmt numFmtId="65" formatCode="General"/>
     <numFmt numFmtId="66" formatCode="00000"/>
     <numFmt numFmtId="69" formatCode="0;[Red]0"/>
     <numFmt numFmtId="70" formatCode="@"/>
-    <numFmt numFmtId="75" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -9586,7 +9117,7 @@
       <color theme="1"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9812,14 +9343,8 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="47">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -10300,26 +9825,6 @@
       <top/>
       <bottom/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -10470,7 +9975,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="326">
+  <cellXfs count="292">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -11345,108 +10850,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="45" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="43" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="43" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="46" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="75" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="75" fontId="20" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="66" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="38" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -11770,10 +11173,10 @@
   <sheetPr>
     <tabColor rgb="ff0000"/>
   </sheetPr>
-  <dimension ref="A1:G141"/>
+  <dimension ref="A1:G140"/>
   <sheetViews>
-    <sheetView topLeftCell="A121" tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="B107" sqref="B107"/>
+    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -11781,7 +11184,7 @@
     <col min="1" max="1" style="223" width="6.63000011" customWidth="1" outlineLevel="0"/>
     <col min="2" max="2" width="8.38000011" customWidth="1" outlineLevel="0"/>
     <col min="4" max="4" width="49.00500107" customWidth="1" outlineLevel="0"/>
-    <col min="5" max="5" style="10" width="37.38000107" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="5" style="10" width="22.37999916" customWidth="1" outlineLevel="0"/>
     <col min="6" max="6" style="10" width="29.00499916" customWidth="1" outlineLevel="0"/>
     <col min="7" max="7" style="18" width="36.00500107" customWidth="1" outlineLevel="0"/>
   </cols>
@@ -11823,7 +11226,7 @@
         <v>1912</v>
       </c>
       <c r="F2" s="289" t="s">
-        <v>3050</v>
+        <v>2817</v>
       </c>
       <c r="G2" s="18" t="s">
         <v>1867</v>
@@ -11879,7 +11282,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="225"/>
-      <c r="B6" s="0" t="s">
+      <c r="D6" s="0" t="s">
         <v>685</v>
       </c>
     </row>
@@ -11897,7 +11300,7 @@
         <v>1869</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>2824</v>
+        <v>2944</v>
       </c>
       <c r="G7" s="18" t="s">
         <v>1913</v>
@@ -11947,7 +11350,7 @@
         <v>1876</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>3032</v>
+        <v>2494</v>
       </c>
       <c r="F10" s="15"/>
     </row>
@@ -11965,7 +11368,7 @@
         <v>1991</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>2868</v>
+        <v>2950</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -12003,7 +11406,7 @@
         <v>1880</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>3032</v>
+        <v>2494</v>
       </c>
       <c r="F13" s="15"/>
       <c r="G13" s="18" t="s">
@@ -12012,7 +11415,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="225"/>
-      <c r="B14" s="0" t="s">
+      <c r="D14" s="0" t="s">
         <v>685</v>
       </c>
     </row>
@@ -12031,7 +11434,7 @@
       </c>
       <c r="E15" s="37"/>
       <c r="F15" s="291" t="s">
-        <v>3066</v>
+        <v>2952</v>
       </c>
       <c r="G15" s="38" t="s">
         <v>1886</v>
@@ -12058,7 +11461,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="225"/>
-      <c r="B17" s="0" t="s">
+      <c r="D17" s="0" t="s">
         <v>685</v>
       </c>
     </row>
@@ -12076,10 +11479,10 @@
         <v>1887</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>3032</v>
+        <v>2494</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>2827</v>
+        <v>2839</v>
       </c>
       <c r="G18" s="18" t="s">
         <v>1889</v>
@@ -12114,7 +11517,7 @@
         <v>1893</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>2828</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -12199,7 +11602,7 @@
         <v>1934</v>
       </c>
       <c r="E25" s="264" t="s">
-        <v>3033</v>
+        <v>2495</v>
       </c>
       <c r="F25" s="290" t="s">
         <v>2835</v>
@@ -12210,9 +11613,7 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="225"/>
-      <c r="B26" s="241" t="s">
-        <v>685</v>
-      </c>
+      <c r="B26" s="241"/>
       <c r="C26" s="241"/>
       <c r="D26" s="241"/>
       <c r="E26" s="264"/>
@@ -12242,11 +11643,11 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="225"/>
-      <c r="B28" s="241" t="s">
+      <c r="B28" s="241"/>
+      <c r="C28" s="241"/>
+      <c r="D28" s="241" t="s">
         <v>685</v>
       </c>
-      <c r="C28" s="241"/>
-      <c r="D28" s="241"/>
       <c r="E28" s="264"/>
       <c r="F28" s="264"/>
     </row>
@@ -12267,7 +11668,7 @@
         <v>2509</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>2836</v>
+        <v>2841</v>
       </c>
       <c r="G29" s="18" t="s">
         <v>1946</v>
@@ -12320,7 +11721,7 @@
         <v>1842</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>3051</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -12373,7 +11774,7 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="225"/>
-      <c r="B36" s="0" t="s">
+      <c r="D36" s="0" t="s">
         <v>685</v>
       </c>
     </row>
@@ -12391,7 +11792,7 @@
         <v>1958</v>
       </c>
       <c r="F37" s="290" t="s">
-        <v>3052</v>
+        <v>2869</v>
       </c>
       <c r="G37" s="18" t="s">
         <v>1977</v>
@@ -12411,7 +11812,7 @@
         <v>1959</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>3036</v>
+        <v>2497</v>
       </c>
       <c r="F38" s="290"/>
     </row>
@@ -12462,7 +11863,7 @@
         <v>1972</v>
       </c>
       <c r="F41" s="290" t="s">
-        <v>3053</v>
+        <v>2870</v>
       </c>
       <c r="G41" s="18" t="s">
         <v>1978</v>
@@ -12482,7 +11883,7 @@
         <v>1965</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>3047</v>
+        <v>2525</v>
       </c>
       <c r="F42" s="290"/>
     </row>
@@ -12515,7 +11916,7 @@
         <v>1967</v>
       </c>
       <c r="F44" s="290" t="s">
-        <v>3054</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -12583,7 +11984,7 @@
         <v>1981</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>3048</v>
+        <v>2513</v>
       </c>
       <c r="F48" s="290"/>
     </row>
@@ -12601,7 +12002,7 @@
         <v>1982</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>3067</v>
+        <v>2878</v>
       </c>
       <c r="G49" s="45" t="s">
         <v>2514</v>
@@ -12621,7 +12022,7 @@
         <v>1983</v>
       </c>
       <c r="F50" s="290" t="s">
-        <v>3068</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -12638,7 +12039,7 @@
         <v>1989</v>
       </c>
       <c r="F51" s="290" t="s">
-        <v>3069</v>
+        <v>2882</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -12655,7 +12056,7 @@
         <v>1992</v>
       </c>
       <c r="F52" s="290" t="s">
-        <v>3055</v>
+        <v>2883</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -12726,7 +12127,7 @@
         <v>2020</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>3049</v>
+        <v>2515</v>
       </c>
       <c r="F56" s="290"/>
       <c r="G56" s="18" t="s">
@@ -12792,7 +12193,7 @@
         <v>156</v>
       </c>
       <c r="F60" s="290" t="s">
-        <v>3056</v>
+        <v>2884</v>
       </c>
       <c r="G60" s="18" t="s">
         <v>2039</v>
@@ -12997,7 +12398,7 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="225"/>
-      <c r="B73" s="0" t="s">
+      <c r="D73" s="0" t="s">
         <v>685</v>
       </c>
       <c r="F73" s="288"/>
@@ -13016,7 +12417,7 @@
         <v>2069</v>
       </c>
       <c r="F74" s="15" t="s">
-        <v>3057</v>
+        <v>2886</v>
       </c>
       <c r="G74" s="18" t="s">
         <v>2072</v>
@@ -13062,7 +12463,7 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="225"/>
-      <c r="B77" s="0" t="s">
+      <c r="D77" s="0" t="s">
         <v>685</v>
       </c>
     </row>
@@ -13080,7 +12481,7 @@
         <v>1958</v>
       </c>
       <c r="F78" s="15" t="s">
-        <v>3058</v>
+        <v>2890</v>
       </c>
       <c r="G78" s="18" t="s">
         <v>2086</v>
@@ -13117,7 +12518,7 @@
         <v>2089</v>
       </c>
       <c r="F80" s="15" t="s">
-        <v>3059</v>
+        <v>2892</v>
       </c>
       <c r="G80" s="18" t="s">
         <v>2088</v>
@@ -13185,7 +12586,7 @@
         <v>2085</v>
       </c>
       <c r="F84" s="290" t="s">
-        <v>3060</v>
+        <v>2896</v>
       </c>
       <c r="G84" s="18" t="s">
         <v>2093</v>
@@ -13250,7 +12651,7 @@
         <v>2107</v>
       </c>
       <c r="F88" s="290" t="s">
-        <v>3061</v>
+        <v>2895</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -13285,7 +12686,7 @@
         <v>156</v>
       </c>
       <c r="F90" s="15" t="s">
-        <v>3062</v>
+        <v>2900</v>
       </c>
       <c r="G90" s="18" t="s">
         <v>2117</v>
@@ -13368,7 +12769,7 @@
         <v>2143</v>
       </c>
       <c r="F95" s="15" t="s">
-        <v>3063</v>
+        <v>2901</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -13418,7 +12819,7 @@
         <v>2127</v>
       </c>
       <c r="F98" s="15" t="s">
-        <v>3064</v>
+        <v>2902</v>
       </c>
       <c r="G98" s="18" t="s">
         <v>2151</v>
@@ -13549,7 +12950,7 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="225"/>
-      <c r="B107" s="0" t="s">
+      <c r="D107" s="0" t="s">
         <v>685</v>
       </c>
     </row>
@@ -13567,7 +12968,7 @@
         <v>2173</v>
       </c>
       <c r="F108" s="290" t="s">
-        <v>3070</v>
+        <v>2941</v>
       </c>
       <c r="G108" s="18" t="s">
         <v>2177</v>
@@ -13587,7 +12988,7 @@
         <v>2172</v>
       </c>
       <c r="E109" s="10" t="s">
-        <v>3042</v>
+        <v>2520</v>
       </c>
       <c r="F109" s="15" t="s">
         <v>2942</v>
@@ -13653,7 +13054,7 @@
         <v>2287</v>
       </c>
       <c r="E112" s="10" t="s">
-        <v>3042</v>
+        <v>2520</v>
       </c>
       <c r="F112" s="15" t="s">
         <v>2913</v>
@@ -13807,7 +13208,7 @@
         <v>2931</v>
       </c>
       <c r="F120" s="290" t="s">
-        <v>3065</v>
+        <v>2943</v>
       </c>
       <c r="G120" s="18" t="s">
         <v>2214</v>
@@ -13878,7 +13279,7 @@
         <v>2234</v>
       </c>
       <c r="E124" s="10" t="s">
-        <v>3036</v>
+        <v>2497</v>
       </c>
       <c r="F124" s="290"/>
     </row>
@@ -14052,7 +13453,7 @@
         <v>2262</v>
       </c>
       <c r="E135" s="10" t="s">
-        <v>3032</v>
+        <v>2494</v>
       </c>
       <c r="F135" s="15"/>
     </row>
@@ -14133,11 +13534,6 @@
         <v>2266</v>
       </c>
       <c r="F140" s="15"/>
-    </row>
-    <row r="141" spans="1:7">
-      <c r="B141" s="0" t="s">
-        <v>685</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="21">
